--- a/src/Input_Files/IngameSmall/terrains.xlsx
+++ b/src/Input_Files/IngameSmall/terrains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\NamingExamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF70F65-2E9A-4F91-B01A-D5F1B9C082C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1880D9-A33D-448F-AE29-81780A68D53D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Terrain</t>
   </si>
@@ -36,44 +36,139 @@
     <t>plains</t>
   </si>
   <si>
-    <t>mountain</t>
-  </si>
-  <si>
     <t>hills</t>
   </si>
   <si>
     <t>desert</t>
   </si>
   <si>
-    <t>marsh</t>
-  </si>
-  <si>
-    <t>(102, 230, 102)</t>
-  </si>
-  <si>
-    <t>(30, 30, 30)</t>
-  </si>
-  <si>
-    <t>(102, 255, 0)</t>
-  </si>
-  <si>
-    <t>(255, 128, 50)</t>
-  </si>
-  <si>
-    <t>(255, 153, 153)</t>
+    <t>coastline</t>
+  </si>
+  <si>
+    <t>(234, 150, 186)</t>
+  </si>
+  <si>
+    <t>mountain_plateau</t>
+  </si>
+  <si>
+    <t>(68, 16, 9)</t>
+  </si>
+  <si>
+    <t>mountain_valley</t>
+  </si>
+  <si>
+    <t>(135, 122, 122)</t>
+  </si>
+  <si>
+    <t>savannah</t>
+  </si>
+  <si>
+    <t>(231, 216, 187)</t>
+  </si>
+  <si>
+    <t>grasslands</t>
+  </si>
+  <si>
+    <t>(174, 239, 105)</t>
+  </si>
+  <si>
+    <t>tundra</t>
+  </si>
+  <si>
+    <t>(188, 188, 188)</t>
+  </si>
+  <si>
+    <t>(255, 229, 0)</t>
+  </si>
+  <si>
+    <t>desert_mountains</t>
+  </si>
+  <si>
+    <t>(23, 19, 38)</t>
+  </si>
+  <si>
+    <t>drylands</t>
+  </si>
+  <si>
+    <t>(220, 45, 120)</t>
+  </si>
+  <si>
+    <t>farmlands</t>
+  </si>
+  <si>
+    <t>(255, 0, 0)</t>
+  </si>
+  <si>
+    <t>floodplains</t>
+  </si>
+  <si>
+    <t>(55, 31, 153)</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>(71, 178, 45)</t>
+  </si>
+  <si>
+    <t>(90, 50, 12)</t>
+  </si>
+  <si>
+    <t>jungle</t>
+  </si>
+  <si>
+    <t>(10, 60, 35)</t>
+  </si>
+  <si>
+    <t>mountains</t>
+  </si>
+  <si>
+    <t>(100, 100, 100)</t>
+  </si>
+  <si>
+    <t>oasis</t>
+  </si>
+  <si>
+    <t>(155, 143, 204)</t>
+  </si>
+  <si>
+    <t>(204, 163, 102)</t>
+  </si>
+  <si>
+    <t>steppe</t>
+  </si>
+  <si>
+    <t>(200, 100, 25)</t>
+  </si>
+  <si>
+    <t>taiga</t>
+  </si>
+  <si>
+    <t>(46, 153, 89)</t>
+  </si>
+  <si>
+    <t>wetlands</t>
+  </si>
+  <si>
+    <t>(76, 153, 153)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,11 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,13 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -396,42 +496,162 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/Input_Files/IngameSmall/terrains.xlsx
+++ b/src/Input_Files/IngameSmall/terrains.xlsx
@@ -1,163 +1,205 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\NamingExamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Paradox Interactive\Crusader Kings III\mod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1880D9-A33D-448F-AE29-81780A68D53D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="provinces" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Terrain</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>RGB</t>
   </si>
   <si>
-    <t>plains</t>
-  </si>
-  <si>
-    <t>hills</t>
+    <t>code_terrain</t>
+  </si>
+  <si>
+    <t>oasis</t>
+  </si>
+  <si>
+    <t>savanna</t>
+  </si>
+  <si>
+    <t>semi_desert</t>
+  </si>
+  <si>
+    <t>tropical_rainforest</t>
+  </si>
+  <si>
+    <t>tropical_floodplain</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>shrubland</t>
+  </si>
+  <si>
+    <t>taiga</t>
+  </si>
+  <si>
+    <t>tundra</t>
+  </si>
+  <si>
+    <t>rainforest_hills</t>
+  </si>
+  <si>
+    <t>semi_desert_hills</t>
+  </si>
+  <si>
+    <t>savanna_hills</t>
+  </si>
+  <si>
+    <t>forest_hills</t>
+  </si>
+  <si>
+    <t>grassland_hills</t>
+  </si>
+  <si>
+    <t>shrubland_hills</t>
+  </si>
+  <si>
+    <t>taiga_hills</t>
+  </si>
+  <si>
+    <t>tundra_hills</t>
+  </si>
+  <si>
+    <t>montane_rainforest</t>
+  </si>
+  <si>
+    <t>montane_forest</t>
+  </si>
+  <si>
+    <t>montane_grassland</t>
+  </si>
+  <si>
+    <t>montane_taiga</t>
+  </si>
+  <si>
+    <t>alpine_desert</t>
+  </si>
+  <si>
+    <t>atolls</t>
+  </si>
+  <si>
+    <t>farmlands</t>
+  </si>
+  <si>
+    <t>(255, 0, 0)</t>
+  </si>
+  <si>
+    <t>wetlands</t>
   </si>
   <si>
     <t>desert</t>
   </si>
   <si>
-    <t>coastline</t>
-  </si>
-  <si>
-    <t>(234, 150, 186)</t>
-  </si>
-  <si>
-    <t>mountain_plateau</t>
-  </si>
-  <si>
-    <t>(68, 16, 9)</t>
-  </si>
-  <si>
-    <t>mountain_valley</t>
-  </si>
-  <si>
-    <t>(135, 122, 122)</t>
-  </si>
-  <si>
-    <t>savannah</t>
-  </si>
-  <si>
-    <t>(231, 216, 187)</t>
-  </si>
-  <si>
-    <t>grasslands</t>
-  </si>
-  <si>
-    <t>(174, 239, 105)</t>
-  </si>
-  <si>
-    <t>tundra</t>
-  </si>
-  <si>
-    <t>(188, 188, 188)</t>
-  </si>
-  <si>
-    <t>(255, 229, 0)</t>
-  </si>
-  <si>
-    <t>desert_mountains</t>
-  </si>
-  <si>
-    <t>(23, 19, 38)</t>
-  </si>
-  <si>
-    <t>drylands</t>
-  </si>
-  <si>
-    <t>(220, 45, 120)</t>
-  </si>
-  <si>
-    <t>farmlands</t>
-  </si>
-  <si>
-    <t>(255, 0, 0)</t>
-  </si>
-  <si>
-    <t>floodplains</t>
-  </si>
-  <si>
-    <t>(55, 31, 153)</t>
-  </si>
-  <si>
-    <t>forest</t>
-  </si>
-  <si>
-    <t>(71, 178, 45)</t>
-  </si>
-  <si>
-    <t>(90, 50, 12)</t>
-  </si>
-  <si>
-    <t>jungle</t>
-  </si>
-  <si>
-    <t>(10, 60, 35)</t>
-  </si>
-  <si>
-    <t>mountains</t>
-  </si>
-  <si>
-    <t>(100, 100, 100)</t>
-  </si>
-  <si>
-    <t>oasis</t>
-  </si>
-  <si>
-    <t>(155, 143, 204)</t>
-  </si>
-  <si>
-    <t>(204, 163, 102)</t>
-  </si>
-  <si>
-    <t>steppe</t>
-  </si>
-  <si>
-    <t>(200, 100, 25)</t>
-  </si>
-  <si>
-    <t>taiga</t>
-  </si>
-  <si>
-    <t>(46, 153, 89)</t>
-  </si>
-  <si>
-    <t>wetlands</t>
-  </si>
-  <si>
-    <t>(76, 153, 153)</t>
+    <t>desert_hills</t>
+  </si>
+  <si>
+    <t>(0, 219, 219)</t>
+  </si>
+  <si>
+    <t>(212, 255, 119)</t>
+  </si>
+  <si>
+    <t>(245, 163, 1)</t>
+  </si>
+  <si>
+    <t>(38, 127, 0)</t>
+  </si>
+  <si>
+    <t>(40, 130, 103)</t>
+  </si>
+  <si>
+    <t>(58, 163, 91)</t>
+  </si>
+  <si>
+    <t>(173, 206, 97)</t>
+  </si>
+  <si>
+    <t>(198, 199, 0)</t>
+  </si>
+  <si>
+    <t>(159, 206, 165)</t>
+  </si>
+  <si>
+    <t>(206, 206, 206)</t>
+  </si>
+  <si>
+    <t>(2, 87, 40)</t>
+  </si>
+  <si>
+    <t>(205, 123, 39)</t>
+  </si>
+  <si>
+    <t>(172, 215, 79)</t>
+  </si>
+  <si>
+    <t>(18, 123, 51)</t>
+  </si>
+  <si>
+    <t>(133, 166, 57)</t>
+  </si>
+  <si>
+    <t>(158, 159, 40)</t>
+  </si>
+  <si>
+    <t>(119, 166, 125)</t>
+  </si>
+  <si>
+    <t>(166, 166, 166)</t>
+  </si>
+  <si>
+    <t>(38, 47, 0)</t>
+  </si>
+  <si>
+    <t>(22, 83, 11)</t>
+  </si>
+  <si>
+    <t>(93, 126, 17)</t>
+  </si>
+  <si>
+    <t>(79, 126, 85)</t>
+  </si>
+  <si>
+    <t>(126, 126, 126)</t>
+  </si>
+  <si>
+    <t>(198, 119, 255)</t>
+  </si>
+  <si>
+    <t>(90, 206, 173)</t>
+  </si>
+  <si>
+    <t>(206, 175, 117)</t>
+  </si>
+  <si>
+    <t>(166, 135, 77)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,20 +208,315 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -187,18 +524,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,7 +758,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,7 +774,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -240,7 +786,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -287,6 +833,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -322,6 +885,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,17 +1053,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,165 +1076,235 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>